--- a/resources/results.xlsx
+++ b/resources/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C133"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>BERTScore</t>
+          <t>final_score</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Evaluation</t>
+          <t>highest_f1_score</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>most_similar_sentence</t>
         </is>
       </c>
     </row>
@@ -457,11 +462,14 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9289695918560028</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.2707798480987549</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7292201519012451</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>The Faculty of Information Technology is the youngest of the three faculties of the University of Moratuwa and is the first ever faculty of its kind in the national university system of Sri Lanka.</t>
         </is>
       </c>
     </row>
@@ -472,11 +480,14 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9035140350461006</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.3522886037826538</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6477113962173462</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>The Faculty of Information Technology is the youngest of the three faculties of the University of Moratuwa and is the first ever faculty of its kind in the national university system of Sri Lanka.</t>
         </is>
       </c>
     </row>
@@ -487,11 +498,14 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9219183623790741</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.4707567691802979</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5292432308197021</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>The Faculty of Information Technology is the youngest of the three faculties of the University of Moratuwa and is the first ever faculty of its kind in the national university system of Sri Lanka.</t>
         </is>
       </c>
     </row>
@@ -502,11 +516,14 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9250516146421432</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.5102512240409851</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4897487759590149</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>The Faculty was established in June 2001 to cater to the growing need of Information Technology professionals in the country.</t>
         </is>
       </c>
     </row>
@@ -517,11 +534,14 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9253034219145775</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.5118581056594849</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4881418943405151</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>The Faculty was established in June 2001 to cater to the growing need of Information Technology professionals in the country.</t>
         </is>
       </c>
     </row>
@@ -532,11 +552,14 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8697542250156403</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.3459821939468384</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6540178060531616</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>The Faculty was established in June 2001 to cater to the growing need of Information Technology professionals in the country.</t>
         </is>
       </c>
     </row>
@@ -547,11 +570,14 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.888101689517498</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.5415275990962982</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4584724009037018</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>The Faculty was established in June 2001 to cater to the growing need of Information Technology professionals in the country.</t>
         </is>
       </c>
     </row>
@@ -562,11 +588,14 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8697542250156403</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.3459821939468384</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6540178060531616</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>The Faculty was established in June 2001 to cater to the growing need of Information Technology professionals in the country.</t>
         </is>
       </c>
     </row>
@@ -577,11 +606,14 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.98959796782583</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.5997152924537659</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4002847075462341</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>The Faculty was established in June 2001 to cater to the growing need of Information Technology professionals in the country.</t>
         </is>
       </c>
     </row>
@@ -594,9 +626,12 @@
       <c r="B11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Response seems coherent.</t>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Thirteen batches of students have been admitted to the Faculty for the internal undergraduate programme and out of these, 9 batches have already passed out after completing their studies successfully.</t>
         </is>
       </c>
     </row>
@@ -609,9 +644,12 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Response seems coherent.</t>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>The Faculty of Information Technology is the youngest of the three faculties of the University of Moratuwa and is the first ever faculty of its kind in the national university system of Sri Lanka.</t>
         </is>
       </c>
     </row>
@@ -624,9 +662,12 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Response seems coherent.</t>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>The Faculty of Information Technology is the youngest of the three faculties of the University of Moratuwa and is the first ever faculty of its kind in the national university system of Sri Lanka.</t>
         </is>
       </c>
     </row>
@@ -639,9 +680,12 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Response seems coherent.</t>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>The Faculty of Information Technology is the youngest of the three faculties of the University of Moratuwa and is the first ever faculty of its kind in the national university system of Sri Lanka.</t>
         </is>
       </c>
     </row>
@@ -654,9 +698,12 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Response seems coherent.</t>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>One of the main objectives of setting up the faculty is to increase the number of IT professionals in Sri Lanka by at least another 500.</t>
         </is>
       </c>
     </row>
@@ -669,9 +716,12 @@
       <c r="B16" t="n">
         <v>0</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Response seems coherent.</t>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>The Faculty of Information Technology is the youngest of the three faculties of the University of Moratuwa and is the first ever faculty of its kind in the national university system of Sri Lanka.</t>
         </is>
       </c>
     </row>
@@ -684,9 +734,12 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Response seems coherent.</t>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>The Faculty of Information Technology is the youngest of the three faculties of the University of Moratuwa and is the first ever faculty of its kind in the national university system of Sri Lanka.</t>
         </is>
       </c>
     </row>
@@ -699,9 +752,12 @@
       <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Response seems coherent.</t>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>One of the main objectives of setting up the faculty is to increase the number of IT professionals in Sri Lanka by at least another 500.</t>
         </is>
       </c>
     </row>
@@ -712,11 +768,14 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9438331201672554</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.436018705368042</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.563981294631958</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Presently, the Faculty conducts two int ernal degree programmes, namely, B.Sc. (Hons.) in Information Technology and B.Sc.</t>
         </is>
       </c>
     </row>
@@ -727,11 +786,14 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8605469316244125</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.4070686101913452</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5929313898086548</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>The three departments are, • Department of Information Technology • Department of Computational Mathematics • Department of Interdisciplinary Studies Presently, the departments collaboratively offer subjects for the degree programmes conducted by the Faculty.</t>
         </is>
       </c>
     </row>
@@ -742,11 +804,14 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8622438758611679</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.4296416640281677</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.5703583359718323</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>The three departments are, • Department of Information Technology • Department of Computational Mathematics • Department of Interdisciplinary Studies Presently, the departments collaboratively offer subjects for the degree programmes conducted by the Faculty.</t>
         </is>
       </c>
     </row>
@@ -757,11 +822,14 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8860858455300331</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.3815727829933167</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.6184272170066833</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>The three departments are, • Department of Information Technology • Department of Computational Mathematics • Department of Interdisciplinary Studies Presently, the departments collaboratively offer subjects for the degree programmes conducted by the Faculty.</t>
         </is>
       </c>
     </row>
@@ -772,11 +840,14 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8877478241920471</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.3996151089668274</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.6003848910331726</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>The three departments are, • Department of Information Technology • Department of Computational Mathematics • Department of Interdisciplinary Studies Presently, the departments collaboratively offer subjects for the degree programmes conducted by the Faculty.</t>
         </is>
       </c>
     </row>
@@ -787,11 +858,14 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.7516716867685318</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.4879335165023804</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.5120664834976196</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>The Undergraduate Studies Division presently handles matters pertaining the academic affairs of the undergraduate study programmes of the Faculty .</t>
         </is>
       </c>
     </row>
@@ -802,11 +876,14 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8752677887678146</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.3949720859527588</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.6050279140472412</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>The three departments are, • Department of Information Technology • Department of Computational Mathematics • Department of Interdisciplinary Studies Presently, the departments collaboratively offer subjects for the degree programmes conducted by the Faculty.</t>
         </is>
       </c>
     </row>
@@ -817,11 +894,14 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8728955984115601</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.4031856060028076</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.5968143939971924</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>The three departments are, • Department of Information Technology • Department of Computational Mathematics • Department of Interdisciplinary Studies Presently, the departments collaboratively offer subjects for the degree programmes conducted by the Faculty.</t>
         </is>
       </c>
     </row>
@@ -832,11 +912,14 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.8877478241920471</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.3996151089668274</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.6003848910331726</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>The three departments are, • Department of Information Technology • Department of Computational Mathematics • Department of Interdisciplinary Studies Presently, the departments collaboratively offer subjects for the degree programmes conducted by the Faculty.</t>
         </is>
       </c>
     </row>
@@ -847,11 +930,14 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.8954880759119987</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.4158005118370056</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.5841994881629944</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>The Faculty was established in June 2001 to cater to the growing need of Information Technology professionals in the country.</t>
         </is>
       </c>
     </row>
@@ -862,11 +948,14 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.8954880759119987</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.4158005118370056</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.5841994881629944</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>The Faculty was established in June 2001 to cater to the growing need of Information Technology professionals in the country.</t>
         </is>
       </c>
     </row>
@@ -877,11 +966,14 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.8697542250156403</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.3459821939468384</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.6540178060531616</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>The Faculty was established in June 2001 to cater to the growing need of Information Technology professionals in the country.</t>
         </is>
       </c>
     </row>
@@ -892,11 +984,14 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.8697542250156403</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.3459821939468384</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.6540178060531616</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>The Faculty was established in June 2001 to cater to the growing need of Information Technology professionals in the country.</t>
         </is>
       </c>
     </row>
@@ -907,11 +1002,14 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.8697542250156403</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.3459821939468384</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.6540178060531616</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>The Faculty was established in June 2001 to cater to the growing need of Information Technology professionals in the country.</t>
         </is>
       </c>
     </row>
@@ -922,11 +1020,14 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.8697542250156403</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.3459821939468384</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.6540178060531616</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>The Faculty was established in June 2001 to cater to the growing need of Information Technology professionals in the country.</t>
         </is>
       </c>
     </row>
@@ -937,11 +1038,14 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.8697542250156403</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.3459821939468384</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.6540178060531616</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>The Faculty was established in June 2001 to cater to the growing need of Information Technology professionals in the country.</t>
         </is>
       </c>
     </row>
@@ -952,11 +1056,14 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.8697542250156403</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.3459821939468384</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.6540178060531616</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>The Faculty was established in June 2001 to cater to the growing need of Information Technology professionals in the country.</t>
         </is>
       </c>
     </row>
@@ -967,11 +1074,14 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.8697542250156403</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.3459821939468384</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.6540178060531616</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>The Faculty was established in June 2001 to cater to the growing need of Information Technology professionals in the country.</t>
         </is>
       </c>
     </row>
@@ -982,11 +1092,14 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.8697542250156403</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.3459821939468384</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.6540178060531616</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>The Faculty was established in June 2001 to cater to the growing need of Information Technology professionals in the country.</t>
         </is>
       </c>
     </row>
@@ -997,11 +1110,14 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.8582019358873367</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.2480009198188782</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.7519990801811218</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>The faculty consists of three departments of study, and each department is managed by the respective Head of Department.</t>
         </is>
       </c>
     </row>
@@ -1012,11 +1128,14 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.8335505276918411</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.3787863254547119</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.6212136745452881</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>The faculty consists of three departments of study, and each department is managed by the respective Head of Department.</t>
         </is>
       </c>
     </row>
@@ -1027,11 +1146,14 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.8548105210065842</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.1407290101051331</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.8592709898948669</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>The faculty consists of three departments of study, and each department is managed by the respective Head of Department.</t>
         </is>
       </c>
     </row>
@@ -1042,11 +1164,14 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.9413330890238285</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.300643265247345</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.699356734752655</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Some of the other objectives defined during the establishment of the faculty are the introduction of postgraduate progr ammes, carrying out research programmes for the industry in order to solve technical problems, providing consultancies to the local industry and creating an educational environment for the continuous professional development of IT professionals in Sri Lank a.</t>
         </is>
       </c>
     </row>
@@ -1057,11 +1182,14 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.9761583898216486</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.2594535946846008</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.7405464053153992</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>One of the main objectives of setting up the faculty is to increase the number of IT professionals in Sri Lanka by at least another 500.</t>
         </is>
       </c>
     </row>
@@ -1072,11 +1200,14 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.9764780011028051</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.2694459557533264</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.7305540442466736</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>One of the main objectives of setting up the faculty is to increase the number of IT professionals in Sri Lanka by at least another 500.</t>
         </is>
       </c>
     </row>
@@ -1087,11 +1218,14 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.9360123500227928</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.3814632892608643</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.6185367107391357</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Some of the other objectives defined during the establishment of the faculty are the introduction of postgraduate progr ammes, carrying out research programmes for the industry in order to solve technical problems, providing consultancies to the local industry and creating an educational environment for the continuous professional development of IT professionals in Sri Lank a.</t>
         </is>
       </c>
     </row>
@@ -1102,11 +1236,14 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.9413330890238285</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.300643265247345</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.699356734752655</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Some of the other objectives defined during the establishment of the faculty are the introduction of postgraduate progr ammes, carrying out research programmes for the industry in order to solve technical problems, providing consultancies to the local industry and creating an educational environment for the continuous professional development of IT professionals in Sri Lank a.</t>
         </is>
       </c>
     </row>
@@ -1117,11 +1254,14 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.8878601267933846</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.2530868053436279</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.7469131946563721</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>The faculty consists of three departments of study, and each department is managed by the respective Head of Department.</t>
         </is>
       </c>
     </row>
@@ -1132,11 +1272,14 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.8840209022164345</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.2141644954681396</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.7858355045318604</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>The faculty consists of three departments of study, and each department is managed by the respective Head of Department.</t>
         </is>
       </c>
     </row>
@@ -1147,11 +1290,14 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.9360649734735489</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.2206820845603943</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.7793179154396057</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>One of the main objectives of setting up the faculty is to increase the number of IT professionals in Sri Lanka by at least another 500.</t>
         </is>
       </c>
     </row>
@@ -1162,11 +1308,14 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.8715701848268509</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.0166473388671875</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.9833526611328125</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Presently, the Faculty conducts two int ernal degree programmes, namely, B.Sc. (Hons.) in Information Technology and B.Sc.</t>
         </is>
       </c>
     </row>
@@ -1177,11 +1326,14 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.9303532838821411</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.2493146657943726</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.7506853342056274</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>One of the main objectives of setting up the faculty is to increase the number of IT professionals in Sri Lanka by at least another 500.</t>
         </is>
       </c>
     </row>
@@ -1192,11 +1344,14 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.9419687800109386</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.4777532815933228</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.5222467184066772</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Some of the other objectives defined during the establishment of the faculty are the introduction of postgraduate progr ammes, carrying out research programmes for the industry in order to solve technical problems, providing consultancies to the local industry and creating an educational environment for the continuous professional development of IT professionals in Sri Lank a.</t>
         </is>
       </c>
     </row>
@@ -1207,11 +1362,14 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.9671372212469578</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.4078236818313599</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.5921763181686401</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>The Faculty was established in June 2001 to cater to the growing need of Information Technology professionals in the country.</t>
         </is>
       </c>
     </row>
@@ -1222,11 +1380,14 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.8583915829658508</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.2225566506385803</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.7774433493614197</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>The faculty consists of three departments of study, and each department is managed by the respective Head of Department.</t>
         </is>
       </c>
     </row>
@@ -1237,11 +1398,14 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.8868889361619949</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.1717073321342468</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.8282926678657532</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>The faculty consists of three departments of study, and each department is managed by the respective Head of Department.</t>
         </is>
       </c>
     </row>
@@ -1252,11 +1416,14 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.9208472222089767</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.2493672966957092</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.7506327033042908</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>The Faculty was established in June 2001 to cater to the growing need of Information Technology professionals in the country.</t>
         </is>
       </c>
     </row>
@@ -1267,11 +1434,14 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.9208472222089767</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.2493672966957092</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.7506327033042908</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>The Faculty was established in June 2001 to cater to the growing need of Information Technology professionals in the country.</t>
         </is>
       </c>
     </row>
@@ -1282,11 +1452,14 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.9208472222089767</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.2493672966957092</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.7506327033042908</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>The current undergraduate student population is about 600.</t>
         </is>
       </c>
     </row>
@@ -1299,9 +1472,12 @@
       <c r="B58" t="n">
         <v>0</v>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Response seems coherent.</t>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>The current undergraduate student population is about 600.</t>
         </is>
       </c>
     </row>
@@ -1312,11 +1488,14 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.8344129472970963</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.238819420337677</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.761180579662323</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>The current undergraduate student population is about 600.</t>
         </is>
       </c>
     </row>
@@ -1327,11 +1506,14 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.8344129472970963</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.238819420337677</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.761180579662323</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>The current undergraduate student population is about 600.</t>
         </is>
       </c>
     </row>
@@ -1344,9 +1526,12 @@
       <c r="B61" t="n">
         <v>0</v>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Response seems coherent.</t>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>The current undergraduate student population is about 600.</t>
         </is>
       </c>
     </row>
@@ -1359,9 +1544,12 @@
       <c r="B62" t="n">
         <v>0</v>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Response seems coherent.</t>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>The current undergraduate student population is about 600.</t>
         </is>
       </c>
     </row>
@@ -1372,11 +1560,14 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.8344129472970963</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.238819420337677</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.761180579662323</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>The current undergraduate student population is about 600.</t>
         </is>
       </c>
     </row>
@@ -1387,11 +1578,14 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.8344129472970963</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.238819420337677</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.761180579662323</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>The current undergraduate student population is about 600.</t>
         </is>
       </c>
     </row>
@@ -1402,11 +1596,14 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.8344129472970963</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.238819420337677</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.761180579662323</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>The current undergraduate student population is about 600.</t>
         </is>
       </c>
     </row>
@@ -1419,9 +1616,12 @@
       <c r="B66" t="n">
         <v>0</v>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Response seems coherent.</t>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>The current undergraduate student population is about 600.</t>
         </is>
       </c>
     </row>
@@ -1434,9 +1634,12 @@
       <c r="B67" t="n">
         <v>0</v>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Response seems coherent.</t>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>The current undergraduate student population is about 600.</t>
         </is>
       </c>
     </row>
@@ -1447,11 +1650,14 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.5848107933998108</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.1590471863746643</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.8409528136253357</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>The Faculty is conducting a Master of Science in Information Technology , Masters of Science in Artificial Intelligence , Master of Philosophy and Doctoral degrees as postgraduate programmes starting from early 2004.</t>
         </is>
       </c>
     </row>
@@ -1462,11 +1668,14 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.6716773211956024</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.2799974083900452</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.7200025916099548</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>The Undergraduate Studies Division presently handles matters pertaining the academic affairs of the undergraduate study programmes of the Faculty .</t>
         </is>
       </c>
     </row>
@@ -1479,9 +1688,12 @@
       <c r="B70" t="n">
         <v>0</v>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Response seems coherent.</t>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>The Faculty is conducting a Master of Science in Information Technology , Masters of Science in Artificial Intelligence , Master of Philosophy and Doctoral degrees as postgraduate programmes starting from early 2004.</t>
         </is>
       </c>
     </row>
@@ -1492,11 +1704,14 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.6672765910625458</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.3241087198257446</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.6758912801742554</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>The Undergraduate Studies Division presently handles matters pertaining the academic affairs of the undergraduate study programmes of the Faculty .</t>
         </is>
       </c>
     </row>
@@ -1507,11 +1722,14 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.7216691672801971</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.4766362309455872</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.5233637690544128</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>The Undergraduate Studies Division presently handles matters pertaining the academic affairs of the undergraduate study programmes of the Faculty .</t>
         </is>
       </c>
     </row>
@@ -1522,11 +1740,14 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.7216691672801971</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.4766362309455872</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.5233637690544128</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>The Undergraduate Studies Division presently handles matters pertaining the academic affairs of the undergraduate study programmes of the Faculty .</t>
         </is>
       </c>
     </row>
@@ -1537,11 +1758,14 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.5611722469329834</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.1364660263061523</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.8635339736938477</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Matters pertaining to taught postgraduate programmes and research degrees are handled by the Postgraduate Studies Division.</t>
         </is>
       </c>
     </row>
@@ -1552,11 +1776,14 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.5913739502429962</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.1117245554924011</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.8882754445075989</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>The Faculty is conducting a Master of Science in Information Technology , Masters of Science in Artificial Intelligence , Master of Philosophy and Doctoral degrees as postgraduate programmes starting from early 2004.</t>
         </is>
       </c>
     </row>
@@ -1567,11 +1794,14 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.6875975131988525</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.3293030261993408</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.6706969738006592</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>The Undergraduate Studies Division presently handles matters pertaining the academic affairs of the undergraduate study programmes of the Faculty .</t>
         </is>
       </c>
     </row>
@@ -1582,11 +1812,14 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.6625844538211823</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.3712548017501831</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.6287451982498169</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>The Undergraduate Studies Division presently handles matters pertaining the academic affairs of the undergraduate study programmes of the Faculty .</t>
         </is>
       </c>
     </row>
@@ -1597,11 +1830,14 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.8594983965158463</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.4320456385612488</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.5679543614387512</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Some of the other objectives defined during the establishment of the faculty are the introduction of postgraduate progr ammes, carrying out research programmes for the industry in order to solve technical problems, providing consultancies to the local industry and creating an educational environment for the continuous professional development of IT professionals in Sri Lank a.</t>
         </is>
       </c>
     </row>
@@ -1612,11 +1848,14 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.8563390076160431</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.4551809430122375</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.5448190569877625</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Some of the other objectives defined during the establishment of the faculty are the introduction of postgraduate progr ammes, carrying out research programmes for the industry in order to solve technical problems, providing consultancies to the local industry and creating an educational environment for the continuous professional development of IT professionals in Sri Lank a.</t>
         </is>
       </c>
     </row>
@@ -1629,9 +1868,12 @@
       <c r="B80" t="n">
         <v>0</v>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Response seems coherent.</t>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>The Faculty of Information Technology is the youngest of the three faculties of the University of Moratuwa and is the first ever faculty of its kind in the national university system of Sri Lanka.</t>
         </is>
       </c>
     </row>
@@ -1642,11 +1884,14 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.7040347456932068</v>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.3172115087509155</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.6827884912490845</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>The Undergraduate Studies Division presently handles matters pertaining the academic affairs of the undergraduate study programmes of the Faculty .</t>
         </is>
       </c>
     </row>
@@ -1657,11 +1902,14 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.9046798199415207</v>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.4313485026359558</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.5686514973640442</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Some of the other objectives defined during the establishment of the faculty are the introduction of postgraduate progr ammes, carrying out research programmes for the industry in order to solve technical problems, providing consultancies to the local industry and creating an educational environment for the continuous professional development of IT professionals in Sri Lank a.</t>
         </is>
       </c>
     </row>
@@ -1672,11 +1920,14 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.8148947507143021</v>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.2473052144050598</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.7526947855949402</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>The Faculty is committed to continue to develop and expand its activities catering to the ever changing needs of the IT industry and to become an entity which both the students and the industry would look up to.</t>
         </is>
       </c>
     </row>
@@ -1687,11 +1938,14 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.8098621964454651</v>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.4221171736717224</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.5778828263282776</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Thirteen batches of students have been admitted to the Faculty for the internal undergraduate programme and out of these, 9 batches have already passed out after completing their studies successfully.</t>
         </is>
       </c>
     </row>
@@ -1702,11 +1956,14 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.8354113399982452</v>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.4221171736717224</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.5778828263282776</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Some of the other objectives defined during the establishment of the faculty are the introduction of postgraduate progr ammes, carrying out research programmes for the industry in order to solve technical problems, providing consultancies to the local industry and creating an educational environment for the continuous professional development of IT professionals in Sri Lank a.</t>
         </is>
       </c>
     </row>
@@ -1717,11 +1974,14 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.915688581764698</v>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.506071925163269</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.493928074836731</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Some of the other objectives defined during the establishment of the faculty are the introduction of postgraduate progr ammes, carrying out research programmes for the industry in order to solve technical problems, providing consultancies to the local industry and creating an educational environment for the continuous professional development of IT professionals in Sri Lank a.</t>
         </is>
       </c>
     </row>
@@ -1732,11 +1992,14 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.664317786693573</v>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.2293253540992737</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.7706746459007263</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>in Information Technology &amp; Management , and the Bachelor of Information Technology , the external degree programme.</t>
         </is>
       </c>
     </row>
@@ -1747,11 +2010,14 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.8922071978449821</v>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.5639887154102325</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.4360112845897675</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Thirteen batches of students have been admitted to the Faculty for the internal undergraduate programme and out of these, 9 batches have already passed out after completing their studies successfully.</t>
         </is>
       </c>
     </row>
@@ -1762,11 +2028,14 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.8721567839384079</v>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.2977275252342224</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.7022724747657776</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>The Faculty is conducting a Master of Science in Information Technology , Masters of Science in Artificial Intelligence , Master of Philosophy and Doctoral degrees as postgraduate programmes starting from early 2004.</t>
         </is>
       </c>
     </row>
@@ -1779,9 +2048,12 @@
       <c r="B90" t="n">
         <v>0.3912332057952881</v>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+      <c r="C90" t="n">
+        <v>0.6087667942047119</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Also, a few professional development programmes have been designed to address the immediate needs of the local IT industry.</t>
         </is>
       </c>
     </row>
@@ -1792,11 +2064,14 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.362743616104126</v>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.3627429008483887</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.6372570991516113</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>The relevant subjects of the programmes have been allocated among the three departments.</t>
         </is>
       </c>
     </row>
@@ -1809,9 +2084,12 @@
       <c r="B92" t="n">
         <v>0.3379279971122742</v>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+      <c r="C92" t="n">
+        <v>0.6620720028877258</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Some of the other objectives defined during the establishment of the faculty are the introduction of postgraduate progr ammes, carrying out research programmes for the industry in order to solve technical problems, providing consultancies to the local industry and creating an educational environment for the continuous professional development of IT professionals in Sri Lank a.</t>
         </is>
       </c>
     </row>
@@ -1824,9 +2102,12 @@
       <c r="B93" t="n">
         <v>0.2793323993682861</v>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+      <c r="C93" t="n">
+        <v>0.7206676006317139</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Matters pertaining to taught postgraduate programmes and research degrees are handled by the Postgraduate Studies Division.</t>
         </is>
       </c>
     </row>
@@ -1837,11 +2118,14 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.7194778025150299</v>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.3788816928863525</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.6211183071136475</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Presently, the Faculty conducts two int ernal degree programmes, namely, B.Sc. (Hons.) in Information Technology and B.Sc.</t>
         </is>
       </c>
     </row>
@@ -1852,11 +2136,14 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.7548720389604568</v>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.4349913597106934</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.5650086402893066</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>The Faculty is conducting a Master of Science in Information Technology , Masters of Science in Artificial Intelligence , Master of Philosophy and Doctoral degrees as postgraduate programmes starting from early 2004.</t>
         </is>
       </c>
     </row>
@@ -1869,9 +2156,12 @@
       <c r="B96" t="n">
         <v>0.3399636149406433</v>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+      <c r="C96" t="n">
+        <v>0.6600363850593567</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Matters pertaining to taught postgraduate programmes and research degrees are handled by the Postgraduate Studies Division.</t>
         </is>
       </c>
     </row>
@@ -1882,11 +2172,14 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.7766769677400589</v>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.3596438765525818</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.6403561234474182</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>The faculty consists of three departments of study, and each department is managed by the respective Head of Department.</t>
         </is>
       </c>
     </row>
@@ -1897,11 +2190,14 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.9048048406839371</v>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.6623047590255737</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.3376952409744263</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>The faculty consists of three departments of study, and each department is managed by the respective Head of Department.</t>
         </is>
       </c>
     </row>
@@ -1912,11 +2208,14 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.9099758341908455</v>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.694103479385376</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.305896520614624</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>The faculty consists of three departments of study, and each department is managed by the respective Head of Department.</t>
         </is>
       </c>
     </row>
@@ -1927,11 +2226,14 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1.085504747927189</v>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.7531754523515701</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.2468245476484299</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>The three departments are, • Department of Information Technology • Department of Computational Mathematics • Department of Interdisciplinary Studies Presently, the departments collaboratively offer subjects for the degree programmes conducted by the Faculty.</t>
         </is>
       </c>
     </row>
@@ -1942,11 +2244,14 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.4683782458305359</v>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.3845845460891724</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.6154154539108276</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>The Faculty is conducting a Master of Science in Information Technology , Masters of Science in Artificial Intelligence , Master of Philosophy and Doctoral degrees as postgraduate programmes starting from early 2004.</t>
         </is>
       </c>
     </row>
@@ -1957,11 +2262,14 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.7949276715517044</v>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.5638859272003174</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.4361140727996826</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Thirteen batches of students have been admitted to the Faculty for the internal undergraduate programme and out of these, 9 batches have already passed out after completing their studies successfully.</t>
         </is>
       </c>
     </row>
@@ -1972,11 +2280,14 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.8133673220872879</v>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.2701455950737</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.7298544049263</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>The three departments are, • Department of Information Technology • Department of Computational Mathematics • Department of Interdisciplinary Studies Presently, the departments collaboratively offer subjects for the degree programmes conducted by the Faculty.</t>
         </is>
       </c>
     </row>
@@ -1987,11 +2298,14 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.7413356900215149</v>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.506319135427475</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.493680864572525</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>The relevant subjects of the programmes have been allocated among the three departments.</t>
         </is>
       </c>
     </row>
@@ -2002,11 +2316,14 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.809452161192894</v>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.469476580619812</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.530523419380188</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>The relevant subjects of the programmes have been allocated among the three departments.</t>
         </is>
       </c>
     </row>
@@ -2017,11 +2334,14 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.7710800617933273</v>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.3714815378189087</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.6285184621810913</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>The relevant subjects of the programmes have been allocated among the three departments.</t>
         </is>
       </c>
     </row>
@@ -2032,11 +2352,14 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.7546301335096359</v>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.4974017739295959</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.5025982260704041</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>The faculty consists of three departments of study, and each department is managed by the respective Head of Department.</t>
         </is>
       </c>
     </row>
@@ -2047,11 +2370,14 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.8105180114507675</v>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.4529747366905212</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.5470252633094788</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Thirteen batches of students have been admitted to the Faculty for the internal undergraduate programme and out of these, 9 batches have already passed out after completing their studies successfully.</t>
         </is>
       </c>
     </row>
@@ -2062,11 +2388,14 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.7718619555234909</v>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.3904795050621033</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.6095204949378967</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>The Undergraduate Studies Division presently handles matters pertaining the academic affairs of the undergraduate study programmes of the Faculty .</t>
         </is>
       </c>
     </row>
@@ -2077,11 +2406,14 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.8409761041402817</v>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.5528079569339752</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.4471920430660248</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>The Faculty is conducting a Master of Science in Information Technology , Masters of Science in Artificial Intelligence , Master of Philosophy and Doctoral degrees as postgraduate programmes starting from early 2004.</t>
         </is>
       </c>
     </row>
@@ -2092,11 +2424,14 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.8107920587062836</v>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.5036435723304749</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.4963564276695251</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Presently, the Faculty conducts two int ernal degree programmes, namely, B.Sc. (Hons.) in Information Technology and B.Sc.</t>
         </is>
       </c>
     </row>
@@ -2107,11 +2442,14 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.8164610266685486</v>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.5207196474075317</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.4792803525924683</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>in Information Technology &amp; Management , and the Bachelor of Information Technology , the external degree programme.</t>
         </is>
       </c>
     </row>
@@ -2122,11 +2460,14 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.7066439092159271</v>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.5675877928733826</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.4324122071266174</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Also, a few professional development programmes have been designed to address the immediate needs of the local IT industry.</t>
         </is>
       </c>
     </row>
@@ -2137,11 +2478,14 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.7936870157718658</v>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.5448003709316254</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.4551996290683746</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Presently, the Faculty conducts two int ernal degree programmes, namely, B.Sc. (Hons.) in Information Technology and B.Sc.</t>
         </is>
       </c>
     </row>
@@ -2152,11 +2496,14 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.8557114452123642</v>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.60277259349823</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.39722740650177</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>in Information Technology &amp; Management , and the Bachelor of Information Technology , the external degree programme.</t>
         </is>
       </c>
     </row>
@@ -2167,11 +2514,14 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.8314319103956223</v>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.159329354763031</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.840670645236969</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>The faculty consists of three departments of study, and each department is managed by the respective Head of Department.</t>
         </is>
       </c>
     </row>
@@ -2182,11 +2532,14 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.8329798132181168</v>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.2258244752883911</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.7741755247116089</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Also, a few professional development programmes have been designed to address the immediate needs of the local IT industry.</t>
         </is>
       </c>
     </row>
@@ -2197,11 +2550,14 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.8202666938304901</v>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.3943681716918945</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.6056318283081055</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Thirteen batches of students have been admitted to the Faculty for the internal undergraduate programme and out of these, 9 batches have already passed out after completing their studies successfully.</t>
         </is>
       </c>
     </row>
@@ -2212,11 +2568,14 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.7750619649887085</v>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.3943681716918945</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.6056318283081055</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>(Hons.)</t>
         </is>
       </c>
     </row>
@@ -2227,11 +2586,14 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.8540332168340683</v>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.4298658967018127</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.5701341032981873</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Also, a few professional development programmes have been designed to address the immediate needs of the local IT industry.</t>
         </is>
       </c>
     </row>
@@ -2242,11 +2604,14 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.4860808253288269</v>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.3482339382171631</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.6517660617828369</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>The Faculty is conducting a Master of Science in Information Technology , Masters of Science in Artificial Intelligence , Master of Philosophy and Doctoral degrees as postgraduate programmes starting from early 2004.</t>
         </is>
       </c>
     </row>
@@ -2257,11 +2622,14 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.7442224323749542</v>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.06719720363616943</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.9328027963638306</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Thirteen batches of students have been admitted to the Faculty for the internal undergraduate programme and out of these, 9 batches have already passed out after completing their studies successfully.</t>
         </is>
       </c>
     </row>
@@ -2272,11 +2640,14 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.8329798132181168</v>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.2258244752883911</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.7741755247116089</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Also, a few professional development programmes have been designed to address the immediate needs of the local IT industry.</t>
         </is>
       </c>
     </row>
@@ -2287,11 +2658,14 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.8329798132181168</v>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Potential hallucination detected!</t>
+        <v>0.2258244752883911</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.7741755247116089</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>The relevant subjects of the programmes have been allocated among the three departments.</t>
         </is>
       </c>
     </row>
@@ -2304,9 +2678,12 @@
       <c r="B125" t="n">
         <v>0</v>
       </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Response seems coherent.</t>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>The Faculty of Information Technology is the youngest of the three faculties of the University of Moratuwa and is the first ever faculty of its kind in the national university system of Sri Lanka.</t>
         </is>
       </c>
     </row>
@@ -2319,9 +2696,12 @@
       <c r="B126" t="n">
         <v>0</v>
       </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Response seems coherent.</t>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>The current undergraduate student population is about 600.</t>
         </is>
       </c>
     </row>
@@ -2334,9 +2714,12 @@
       <c r="B127" t="n">
         <v>0</v>
       </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Response seems coherent.</t>
+      <c r="C127" t="n">
+        <v>1</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>The Undergraduate Studies Division presently handles matters pertaining the academic affairs of the undergraduate study programmes of the Faculty .</t>
         </is>
       </c>
     </row>
@@ -2349,9 +2732,12 @@
       <c r="B128" t="n">
         <v>0</v>
       </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Response seems coherent.</t>
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>The Faculty of Information Technology is the youngest of the three faculties of the University of Moratuwa and is the first ever faculty of its kind in the national university system of Sri Lanka.</t>
         </is>
       </c>
     </row>
@@ -2364,9 +2750,12 @@
       <c r="B129" t="n">
         <v>0</v>
       </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Response seems coherent.</t>
+      <c r="C129" t="n">
+        <v>1</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>The Faculty is conducting a Master of Science in Information Technology , Masters of Science in Artificial Intelligence , Master of Philosophy and Doctoral degrees as postgraduate programmes starting from early 2004.</t>
         </is>
       </c>
     </row>
@@ -2379,9 +2768,12 @@
       <c r="B130" t="n">
         <v>0</v>
       </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Response seems coherent.</t>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>The Faculty of Information Technology is the youngest of the three faculties of the University of Moratuwa and is the first ever faculty of its kind in the national university system of Sri Lanka.</t>
         </is>
       </c>
     </row>
@@ -2394,9 +2786,12 @@
       <c r="B131" t="n">
         <v>0</v>
       </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Response seems coherent.</t>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>in Information Technology &amp; Management , and the Bachelor of Information Technology , the external degree programme.</t>
         </is>
       </c>
     </row>
@@ -2409,9 +2804,12 @@
       <c r="B132" t="n">
         <v>0</v>
       </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Response seems coherent.</t>
+      <c r="C132" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>The Faculty of Information Technology is the youngest of the three faculties of the University of Moratuwa and is the first ever faculty of its kind in the national university system of Sri Lanka.</t>
         </is>
       </c>
     </row>
@@ -2424,9 +2822,12 @@
       <c r="B133" t="n">
         <v>0</v>
       </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Response seems coherent.</t>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>The Faculty of Information Technology is the youngest of the three faculties of the University of Moratuwa and is the first ever faculty of its kind in the national university system of Sri Lanka.</t>
         </is>
       </c>
     </row>
